--- a/biology/Histoire de la zoologie et de la botanique/Felipe_Poey/Felipe_Poey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Felipe_Poey/Felipe_Poey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Felipe Poey y Aloy est un zoologiste cubain, né le 26 mai 1799 à La Havane et mort le 28 janvier 1891.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses parents sont français et espagnol et il passe plusieurs années (de 1804 à 1807) à Pau. Il fait des études de droit à Madrid. Il devient juriste en Espagne mais doit quitter le pays à cause de ses idées libérales et retourne à Cuba en 1823. Il commence alors à s'intéresser à l'histoire naturelle et voyage en France en 1825 avec sa femme. Durant son séjour, il améliore sa connaissance du latin et commence à publier ses premières recherches sur les papillons cubains. Il participe à la fondation, en 1832, de la Société entomologique de France.
 Il commence également à étudier les poissons. Plus tard, après son retour à Cuba, il fera parvenir des spécimens de la faune locale à Georges Cuvier (1769-1832) et à Achille Valenciennes (1794-1865).
